--- a/Dane/StopaBezrobocia.xlsx
+++ b/Dane/StopaBezrobocia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waldek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waldek\Desktop\Inflacja\InflationPredict\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="159">
   <si>
     <t>rok/miesiąc</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>a)</t>
-  </si>
-  <si>
-    <t>b)</t>
   </si>
   <si>
     <t>18,1</t>
@@ -555,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1699,7 @@
         <v>2002</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>104</v>
@@ -1720,19 +1714,19 @@
         <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>93</v>
@@ -1746,13 +1740,13 @@
         <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>111</v>
@@ -1783,511 +1777,494 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
